--- a/data/trans_orig/P20D2_R_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_R_2023-Provincia-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>2507</v>
+        <v>2502</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3446604990026196</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.838056149116875</v>
+        <v>0.8361852205286566</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3070</v>
+        <v>3205</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2008931210449095</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5978987225641453</v>
+        <v>0.6242700420310423</v>
       </c>
     </row>
     <row r="5">
@@ -817,16 +817,16 @@
         <v>1961</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>2992</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6553395009973804</v>
+        <v>0.6553395009973805</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1601318905312915</v>
+        <v>0.163952182621891</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>4103</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1980</v>
+        <v>1925</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>5134</v>
@@ -847,7 +847,7 @@
         <v>0.7991068789550904</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3856869367467188</v>
+        <v>0.3748624790670095</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -942,19 +942,19 @@
         <v>12659</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8111</v>
+        <v>8037</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15623</v>
+        <v>15531</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7572611747145421</v>
+        <v>0.7572611747145424</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4851875363063884</v>
+        <v>0.4807514413008617</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9345749839917837</v>
+        <v>0.9290331710679944</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -963,19 +963,19 @@
         <v>3760</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1766</v>
+        <v>1611</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5724</v>
+        <v>5625</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.5736287721019355</v>
+        <v>0.5736287721019356</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2694161326691336</v>
+        <v>0.2457514594926855</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8733697250382298</v>
+        <v>0.8582274329196198</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -984,19 +984,19 @@
         <v>16419</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10983</v>
+        <v>10895</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20234</v>
+        <v>20435</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7055425832264614</v>
+        <v>0.7055425832264611</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4719514922980721</v>
+        <v>0.4681605912969322</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8694674344002383</v>
+        <v>0.8780977057675807</v>
       </c>
     </row>
     <row r="8">
@@ -1013,19 +1013,19 @@
         <v>4058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1094</v>
+        <v>1186</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8606</v>
+        <v>8680</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2427388252854577</v>
+        <v>0.2427388252854578</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06542501600821631</v>
+        <v>0.0709668289320058</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5148124636936116</v>
+        <v>0.5192485586991384</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1034,19 +1034,19 @@
         <v>2794</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>830</v>
+        <v>929</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4788</v>
+        <v>4943</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4263712278980645</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1266302749617703</v>
+        <v>0.1417725670803803</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7305838673308666</v>
+        <v>0.7542485405073147</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1055,19 +1055,19 @@
         <v>6853</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3038</v>
+        <v>2837</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12289</v>
+        <v>12377</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2944574167735389</v>
+        <v>0.2944574167735388</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1305325655997618</v>
+        <v>0.1219022942324187</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5280485077019282</v>
+        <v>0.5318394087030673</v>
       </c>
     </row>
     <row r="9">
@@ -1159,7 +1159,7 @@
         <v>9357</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5908</v>
+        <v>6506</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>10706</v>
@@ -1168,7 +1168,7 @@
         <v>0.8739849390242744</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5517971354576897</v>
+        <v>0.6077393759740511</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3364</v>
+        <v>2936</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1600618194326497</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4835750601196329</v>
+        <v>0.4220600452727016</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1201,19 +1201,19 @@
         <v>10470</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6610</v>
+        <v>7043</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13805</v>
+        <v>13689</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5927882495451355</v>
+        <v>0.5927882495451353</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3742251814208373</v>
+        <v>0.3987245136748385</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7815650757637511</v>
+        <v>0.7749866758657484</v>
       </c>
     </row>
     <row r="11">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4798</v>
+        <v>4200</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1260150609757254</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4482028645423092</v>
+        <v>0.3922606240259487</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>10</v>
@@ -1251,16 +1251,16 @@
         <v>5843</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3593</v>
+        <v>4021</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>6957</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8399381805673503</v>
+        <v>0.8399381805673504</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.516424939880367</v>
+        <v>0.5779399547272983</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1272,19 +1272,19 @@
         <v>7193</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3858</v>
+        <v>3974</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11053</v>
+        <v>10620</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4072117504548646</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2184349242362489</v>
+        <v>0.2250133241342514</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6257748185791631</v>
+        <v>0.6012754863251616</v>
       </c>
     </row>
     <row r="12">
@@ -1376,7 +1376,7 @@
         <v>8605</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4670</v>
+        <v>5013</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>10754</v>
@@ -1385,7 +1385,7 @@
         <v>0.8001214973556149</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4342151233421237</v>
+        <v>0.46614977859074</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -1397,19 +1397,19 @@
         <v>5516</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1824</v>
+        <v>1709</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9957</v>
+        <v>9831</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.4812332463722377</v>
+        <v>0.4812332463722376</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1590884752113547</v>
+        <v>0.1491314723866601</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8686019604935792</v>
+        <v>0.8576422383920806</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1418,19 +1418,19 @@
         <v>14121</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8660</v>
+        <v>8872</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18440</v>
+        <v>18280</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6355921100490369</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3897756864084422</v>
+        <v>0.3993540901383453</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8299890826427785</v>
+        <v>0.8227794874307066</v>
       </c>
     </row>
     <row r="14">
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6084</v>
+        <v>5735</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.199878502644385</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5657840199216128</v>
+        <v>0.5332512384779523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1468,19 +1468,19 @@
         <v>5947</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1506</v>
+        <v>1632</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9639</v>
+        <v>9754</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5187667536277624</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1313980395064233</v>
+        <v>0.1423577616079194</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8409115247886456</v>
+        <v>0.8508685276133404</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -1489,19 +1489,19 @@
         <v>8096</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3777</v>
+        <v>3937</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13557</v>
+        <v>13345</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.364407889950963</v>
+        <v>0.3644078899509631</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1700109173572215</v>
+        <v>0.1772205125692934</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6102243135915577</v>
+        <v>0.6006459098616542</v>
       </c>
     </row>
     <row r="15">
@@ -1593,7 +1593,7 @@
         <v>1951</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2448</v>
@@ -1602,7 +1602,7 @@
         <v>0.7970533751449691</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2906936938079048</v>
+        <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -1635,19 +1635,19 @@
         <v>2335</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3321</v>
+        <v>3280</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6409350116332875</v>
+        <v>0.6409350116332876</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1997374687747717</v>
+        <v>0.2080609287274433</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.911602753989733</v>
+        <v>0.9003631867404626</v>
       </c>
     </row>
     <row r="17">
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1736</v>
+        <v>2448</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2029466248550309</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7093063061920951</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1706,19 +1706,19 @@
         <v>1308</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>319</v>
+        <v>364</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2914</v>
+        <v>2887</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3590649883667124</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0875300773450028</v>
+        <v>0.0999276624340486</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7999260189480547</v>
+        <v>0.7925867538296296</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>4149</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2426</v>
+        <v>2085</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5602</v>
+        <v>5617</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6797634734100254</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3974577762772861</v>
+        <v>0.3417110364314567</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.917850340696013</v>
+        <v>0.9203016671804286</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1831,19 +1831,19 @@
         <v>1952</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>492</v>
+        <v>443</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3012</v>
+        <v>3038</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5892436315742537</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1485334346632689</v>
+        <v>0.1335925076676444</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9089983313271689</v>
+        <v>0.9168841533038155</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -1852,19 +1852,19 @@
         <v>6101</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3578</v>
+        <v>3750</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7840</v>
+        <v>8154</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6479125232240772</v>
+        <v>0.6479125232240776</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3799810827522994</v>
+        <v>0.3983064673177127</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8326706449225432</v>
+        <v>0.86594103508776</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>1954</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3677</v>
+        <v>4018</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3202365265899746</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08214965930398702</v>
+        <v>0.07969833281957135</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6025422237227137</v>
+        <v>0.6582889635685432</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1902,19 +1902,19 @@
         <v>1361</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2821</v>
+        <v>2862</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4107563684257461</v>
+        <v>0.4107563684257462</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08698825079937736</v>
+        <v>0.08311584669618456</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8514243265575436</v>
+        <v>0.8638338360061065</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1923,19 +1923,19 @@
         <v>3315</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1576</v>
+        <v>1262</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5838</v>
+        <v>5666</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3520874767759226</v>
+        <v>0.3520874767759228</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1673293550774567</v>
+        <v>0.1340589649122398</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6200189172477009</v>
+        <v>0.6016935326822874</v>
       </c>
     </row>
     <row r="21">
@@ -2027,19 +2027,19 @@
         <v>6193</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2951</v>
+        <v>2759</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9533</v>
+        <v>9372</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5793299842405885</v>
+        <v>0.5793299842405886</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2760086243798656</v>
+        <v>0.2581297876139442</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8917923096321705</v>
+        <v>0.8766877162512045</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2048,19 +2048,19 @@
         <v>8224</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4716</v>
+        <v>4752</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11970</v>
+        <v>12084</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.4116832113562438</v>
+        <v>0.4116832113562439</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2360876807073599</v>
+        <v>0.2378958881990272</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5992300795228158</v>
+        <v>0.6049183180616337</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -2069,19 +2069,19 @@
         <v>14417</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9332</v>
+        <v>9697</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19874</v>
+        <v>19662</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4701229633121564</v>
+        <v>0.4701229633121565</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3042979000665665</v>
+        <v>0.3162274284779708</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6480678788431912</v>
+        <v>0.6411542163879909</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>4497</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1157</v>
+        <v>1318</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7739</v>
+        <v>7931</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4206700157594115</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1082076903678294</v>
+        <v>0.1233122837487954</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7239913756201343</v>
+        <v>0.741870212386056</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>16</v>
@@ -2119,19 +2119,19 @@
         <v>11752</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8006</v>
+        <v>7892</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15260</v>
+        <v>15224</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5883167886437561</v>
+        <v>0.5883167886437562</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4007699204771842</v>
+        <v>0.3950816819383662</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7639123192926403</v>
+        <v>0.7621041118009728</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>20</v>
@@ -2140,19 +2140,19 @@
         <v>16249</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10792</v>
+        <v>11004</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21334</v>
+        <v>20969</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5298770366878436</v>
+        <v>0.5298770366878437</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.351932121156809</v>
+        <v>0.3588457836120095</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6957020999334332</v>
+        <v>0.6837725715220294</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>6063</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3179</v>
+        <v>3155</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7918</v>
+        <v>7921</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7014547255774515</v>
+        <v>0.7014547255774516</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3677582390885387</v>
+        <v>0.3650688174252336</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9161646766850386</v>
+        <v>0.9164615361911517</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3422</v>
+        <v>3440</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.277881335613401</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7078217773535972</v>
+        <v>0.7115968361280244</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2286,19 +2286,19 @@
         <v>7406</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4305</v>
+        <v>4060</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10294</v>
+        <v>10310</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5495258672662812</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3194245573180274</v>
+        <v>0.3012377950203509</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7638525776479826</v>
+        <v>0.764973167591807</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>2580</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5464</v>
+        <v>5488</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2985452744225485</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08383532331496138</v>
+        <v>0.08353846380884818</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6322417609114612</v>
+        <v>0.634931182574766</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2336,7 +2336,7 @@
         <v>3491</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1412</v>
+        <v>1395</v>
       </c>
       <c r="M26" s="5" t="n">
         <v>4834</v>
@@ -2345,7 +2345,7 @@
         <v>0.722118664386599</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2921782226464029</v>
+        <v>0.2885867603002932</v>
       </c>
       <c r="P26" s="6" t="n">
         <v>1</v>
@@ -2357,19 +2357,19 @@
         <v>6071</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3183</v>
+        <v>3167</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9172</v>
+        <v>9417</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4504741327337187</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2361474223520174</v>
+        <v>0.235026832408193</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6805754426819727</v>
+        <v>0.698762204979649</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>48976</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>33</v>
@@ -2482,19 +2482,19 @@
         <v>23324</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>16400</v>
+        <v>17258</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>31098</v>
+        <v>31720</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4071626104444326</v>
+        <v>0.4071626104444327</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2862850766175092</v>
+        <v>0.301272290665611</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5428713797720214</v>
+        <v>0.5537174241716604</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>89</v>
@@ -2503,19 +2503,19 @@
         <v>72300</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>61585</v>
+        <v>61630</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>82721</v>
+        <v>82714</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.5761559980751885</v>
+        <v>0.5761559980751886</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4907668834195131</v>
+        <v>0.4911257034750621</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6591974493830871</v>
+        <v>0.6591430333921242</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>19226</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13114</v>
+        <v>12630</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>27344</v>
+        <v>26563</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.281901797553179</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.192286803032738</v>
+        <v>0.1851836121381725</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4009335505841712</v>
+        <v>0.3894748540186707</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>52</v>
@@ -2553,19 +2553,19 @@
         <v>33961</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26187</v>
+        <v>25565</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>40885</v>
+        <v>40027</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5928373895555672</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4571286202279799</v>
+        <v>0.4462825758283387</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7137149233824909</v>
+        <v>0.6987277093343889</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>73</v>
@@ -2574,19 +2574,19 @@
         <v>53187</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>42766</v>
+        <v>42773</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>63902</v>
+        <v>63857</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.4238440019248115</v>
+        <v>0.4238440019248116</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3408025506169129</v>
+        <v>0.3408569666078762</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.509233116580487</v>
+        <v>0.508874296524938</v>
       </c>
     </row>
     <row r="30">
